--- a/Requirements/No Functional Requeriments.xlsx
+++ b/Requirements/No Functional Requeriments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documents\Proyectos\TimeAdministrator\Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documents\Proyectos\TimeAdministrator\TimeAdministrator\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC08AAC3-A8DC-43DD-B5D0-50BD5BE9364B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F64169-32FF-45F6-9758-AE17F90B8251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
